--- a/test2.xlsx
+++ b/test2.xlsx
@@ -41657,10 +41657,9 @@
 </file>
 
 <file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="3">
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="2">
   <userInfo guid="{DA649BEC-42C2-49F9-A29B-A2A58075782D}" name="Stephen Reitz" id="-1337157638" dateTime="2018-01-26T11:32:30"/>
   <userInfo guid="{467B7505-9160-4B42-A051-8B330F598E3C}" name="Stephen Reitz" id="-1337154974" dateTime="2018-01-30T14:35:07"/>
-  <userInfo guid="{5BFA4CF8-5C64-449A-95A7-CD1C4397D2EB}" name="Stephen Reitz" id="-1337176339" dateTime="2018-01-31T15:45:36"/>
 </users>
 </file>
 

--- a/test2.xlsx
+++ b/test2.xlsx
@@ -41657,10 +41657,11 @@
 </file>
 
 <file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="3">
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="4">
   <userInfo guid="{DA649BEC-42C2-49F9-A29B-A2A58075782D}" name="Stephen Reitz" id="-1337157638" dateTime="2018-01-26T11:32:30"/>
   <userInfo guid="{467B7505-9160-4B42-A051-8B330F598E3C}" name="Stephen Reitz" id="-1337154974" dateTime="2018-01-30T14:35:07"/>
   <userInfo guid="{5BFA4CF8-5C64-449A-95A7-CD1C4397D2EB}" name="Stephen Reitz" id="-1337176339" dateTime="2018-01-31T15:45:36"/>
+  <userInfo guid="{5BFA4CF8-5C64-449A-95A7-CD1C4397D2EB}" name="Stephen Reitz" id="-1337186259" dateTime="2018-02-02T15:46:31"/>
 </users>
 </file>
 
